--- a/藥庫管理系統修訂紀錄.xlsx
+++ b/藥庫管理系統修訂紀錄.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF16137-7E3E-4804-A840-F08625B3ED22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9290CCAF-83CC-48A0-9A6A-EAEC1A14DE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20230404" sheetId="1" r:id="rId1"/>
     <sheet name="20230406" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="20230411" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>新增功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,21 @@
   </si>
   <si>
     <t>修正功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藥庫-手動撥補,列印或匯出後自動更新為撥發完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增功能</t>
+  </si>
+  <si>
+    <t>藥局-緊急申領,顯示包裝數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藥庫-手動撥補,按兩下可更變申領數量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -350,6 +365,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>151475</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>56067</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5ACA4FA-6878-FDEE-5661-B9726A321F32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="1238250"/>
+          <a:ext cx="7400000" cy="8666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>78758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>27594</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D94B4C1-2E83-D948-7F72-2B30D51378D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7753350" y="1336058"/>
+          <a:ext cx="10506075" cy="5397136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -727,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -736,7 +844,7 @@
     <col min="2" max="2" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -753,13 +861,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="38.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/藥庫管理系統修訂紀錄.xlsx
+++ b/藥庫管理系統修訂紀錄.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9290CCAF-83CC-48A0-9A6A-EAEC1A14DE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="20230404" sheetId="1" r:id="rId1"/>
     <sheet name="20230406" sheetId="2" r:id="rId2"/>
     <sheet name="20230411" sheetId="3" r:id="rId3"/>
+    <sheet name="20230413" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>新增功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,11 +62,15 @@
     <t>藥庫-手動撥補,按兩下可更變申領數量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>登入頁面新增修改密碼功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -155,7 +159,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6AA8D30-D73F-07BA-38E8-48D313DC7C81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6AA8D30-D73F-07BA-38E8-48D313DC7C81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -199,7 +203,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D135A8C-E37D-B6C9-BFF1-7EA3012D5B1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D135A8C-E37D-B6C9-BFF1-7EA3012D5B1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -243,7 +247,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F26613-228D-BC5F-C572-DF06B203CE74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29F26613-228D-BC5F-C572-DF06B203CE74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -292,7 +296,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B528E51-E7AC-357D-E150-AC42692308CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B528E51-E7AC-357D-E150-AC42692308CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -336,7 +340,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121D01B6-CC21-EAFB-E40B-D389BE213369}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{121D01B6-CC21-EAFB-E40B-D389BE213369}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -385,7 +389,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5ACA4FA-6878-FDEE-5661-B9726A321F32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5ACA4FA-6878-FDEE-5661-B9726A321F32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -429,7 +433,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D94B4C1-2E83-D948-7F72-2B30D51378D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D94B4C1-2E83-D948-7F72-2B30D51378D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -501,7 +505,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,26 +538,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -586,23 +573,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -778,7 +748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -832,7 +802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -860,11 +830,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -902,4 +872,29 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>